--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Jacquemin\Documents\GitHub\Swate-templates_myfork\templates\community\TRR341_Phenotyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BD465-EA92-4C34-BCE1-5F69AFDB6B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01CC121-D978-A64E-A0D6-B16DF2EDE13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="12990" windowHeight="11775" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
+    <workbookView xWindow="-23940" yWindow="-20600" windowWidth="33060" windowHeight="13860" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_protocol" sheetId="1" r:id="rId1"/>
@@ -750,23 +750,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1930ADE7-ECF3-46CF-8A60-BDAD15E8B5DC}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="27" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -838,16 +838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8821AF5D-04FA-40BF-B936-C9FDB098A1BE}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -855,7 +855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -863,7 +863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -871,7 +871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -879,7 +879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -887,7 +887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -895,37 +895,37 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -951,25 +951,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -977,7 +977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -985,13 +985,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
@@ -999,25 +999,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -1025,13 +1025,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1039,13 +1039,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01CC121-D978-A64E-A0D6-B16DF2EDE13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94320D1-D2E1-8341-95C9-2F494C85EFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23940" yWindow="-20600" windowWidth="33060" windowHeight="13860" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
+    <workbookView xWindow="-23380" yWindow="-20160" windowWidth="33060" windowHeight="13860" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_protocol" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>Event protocol for Study file MIAPPE</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">This template belongs to a serie of templates created for describing Metadata for plant phenotypic experiments within the consortium TRR341. These templates follow the MIAPPE standard. This particular template describe the Event protocol to be added in the study isa file (isa.study.xlsx) of your phenotypic investigation. </t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Coordinator Plant Cultivation and Phenotyping Platform Project Z2</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1930ADE7-ECF3-46CF-8A60-BDAD15E8B5DC}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8821AF5D-04FA-40BF-B936-C9FDB098A1BE}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -876,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -884,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -930,25 +930,25 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1036,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">

--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94320D1-D2E1-8341-95C9-2F494C85EFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C071A1-B8B1-1D45-BCBC-54CD71CD0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23380" yWindow="-20160" windowWidth="33060" windowHeight="13860" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
+    <workbookView xWindow="-23380" yWindow="-20160" windowWidth="33060" windowHeight="13860" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t/>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>1.0.1</t>
+  </si>
+  <si>
+    <t>user-specific</t>
   </si>
 </sst>
 </file>
@@ -750,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1930ADE7-ECF3-46CF-8A60-BDAD15E8B5DC}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -813,9 +816,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8821AF5D-04FA-40BF-B936-C9FDB098A1BE}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C071A1-B8B1-1D45-BCBC-54CD71CD0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF665E3-B61E-47E0-898C-E21B3FA8DEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23380" yWindow="-20160" windowWidth="33060" windowHeight="13860" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t/>
   </si>
@@ -169,9 +169,6 @@
     <t xml:space="preserve">phenotyping </t>
   </si>
   <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
@@ -203,6 +200,15 @@
   </si>
   <si>
     <t>user-specific</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,10 +388,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -437,9 +446,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -477,7 +486,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -583,7 +592,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -753,23 +762,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1930ADE7-ECF3-46CF-8A60-BDAD15E8B5DC}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="27" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -795,15 +804,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -815,15 +824,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -847,16 +856,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8821AF5D-04FA-40BF-B936-C9FDB098A1BE}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -864,7 +873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -872,15 +881,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -888,7 +897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -896,7 +905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -904,42 +913,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -948,113 +957,119 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF665E3-B61E-47E0-898C-E21B3FA8DEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F8F599-BD43-42F7-AB74-44B7BC235F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
@@ -163,18 +163,9 @@
     <t>annotationTableChattyLadybug2</t>
   </si>
   <si>
-    <t xml:space="preserve"> protocol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">phenotyping </t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
-    <t xml:space="preserve">study </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -202,13 +193,22 @@
     <t>user-specific</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>NCIT</t>
-  </si>
-  <si>
     <t>Plant</t>
+  </si>
+  <si>
+    <t>NCIT:C14258</t>
+  </si>
+  <si>
+    <t>phenotyping</t>
+  </si>
+  <si>
+    <t>DPBO:1000224</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
   </si>
 </sst>
 </file>
@@ -809,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -854,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8821AF5D-04FA-40BF-B936-C9FDB098A1BE}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +865,7 @@
     <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -873,7 +873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -881,15 +881,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -897,7 +897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -905,7 +905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -913,92 +913,93 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="E14" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1006,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1020,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1047,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1060,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">

--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F8F599-BD43-42F7-AB74-44B7BC235F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BD9258-5D90-425B-B11B-6115F6CAE06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_protocol" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BD9258-5D90-425B-B11B-6115F6CAE06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7485B1C-F1BA-4C40-A0B0-9B693AD02961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t/>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>NCIT:C63536</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C52095</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -857,7 +863,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,6 +983,9 @@
       <c r="D13" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
       <c r="F13" t="s">
         <v>57</v>
       </c>
@@ -987,6 +996,9 @@
       </c>
       <c r="B14" s="3"/>
       <c r="D14" s="12"/>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">

--- a/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Event_protocol_TRR341_MIAPPE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7485B1C-F1BA-4C40-A0B0-9B693AD02961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6607CD-A587-4410-B59E-12D4FD5748C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFDC793D-D626-4A44-B458-3FB325626DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Event_protocol" sheetId="1" r:id="rId1"/>
     <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -163,9 +163,6 @@
     <t>annotationTableChattyLadybug2</t>
   </si>
   <si>
-    <t xml:space="preserve"> metadata </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metadata </t>
   </si>
 </sst>
 </file>
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -863,7 +863,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -954,22 +954,22 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -978,16 +978,16 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
       <c r="B14" s="3"/>
       <c r="D14" s="12"/>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1059,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
